--- a/res_img/resnet50-moreways-10k-size(768)-medium-trainset(2k)/动态.xlsx
+++ b/res_img/resnet50-moreways-10k-size(768)-medium-trainset(2k)/动态.xlsx
@@ -8,17 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Remote_GDJC\res_img\resnet50-moreways-10k-size(768)-medium-trainset(2k)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BE6980-8149-467A-890E-9010CAE54FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511CA0E4-B794-447C-A583-CD9FDB2F0611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1821,10 +1831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2099,6 +2109,24 @@
       </c>
       <c r="E16">
         <v>0.26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <f>SUM(B14:B16)/3</f>
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:D19" si="0">SUM(C14:C16)/3</f>
+        <v>0.64233333333333331</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="E19">
+        <f>SUM(E14:E16)/3</f>
+        <v>0.158</v>
       </c>
     </row>
   </sheetData>
